--- a/web/result-template/OJT_Result.xlsx
+++ b/web/result-template/OJT_Result.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MTBH\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SWP391\OJT_Management\web\result-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51ADE805-7528-489E-AF69-B6326442B975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8D1578-6E12-4FDC-80C4-FAA4D051A032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3384" yWindow="2820" windowWidth="16584" windowHeight="9420" xr2:uid="{DA29D9DC-C87B-453B-A6FA-635F57F107BE}"/>
   </bookViews>
@@ -46,7 +46,7 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>Status</t>
+    <t>Status (Pass/Not Pass)</t>
   </si>
 </sst>
 </file>
@@ -401,10 +401,13 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="19.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
